--- a/medicine/Mort/Cimetière_Le_Py/Cimetière_Le_Py.xlsx
+++ b/medicine/Mort/Cimetière_Le_Py/Cimetière_Le_Py.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Le_Py</t>
+          <t>Cimetière_Le_Py</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Le Py est un cimetière se trouvant dans la ville de Sète, à un kilomètre et demi environ de la plage de la Corniche (à ne pas confondre avec le cimetière marin Saint-Charles de Sète). On y trouve les sépultures de plusieurs personnalités dont Georges Brassens.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Le_Py</t>
+          <t>Cimetière_Le_Py</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière ouvre en 1877, il est à l'origine consacré à saint Lazare. Il accueille pendant ces premières années les défunts enterrés en fosse commune.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Le_Py</t>
+          <t>Cimetière_Le_Py</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités inhumées célèbres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lucien Barjon (1916-2000), acteur ;
 Yvan Beck (1909-1963), footballeur ;
